--- a/hw2_requirements.xlsx
+++ b/hw2_requirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\568\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\AppData\Local\Temp\Mxt221\RemoteFiles\133858_12_147\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80D6412-B743-4A92-ADEF-59A2CE5B3F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B492A32-7E31-4E14-A6B7-7D6D36E294E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,15 +98,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>strong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1000 requests max, LRU, clean on accessed again</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>server.py provides a minimum http server using vanilla python that accepts requests and sends responses. Tests max-age and revalidation. client.py tests revalidation and expiration time along with server.py.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>at least strong</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -570,10 +570,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/hw2_requirements.xlsx
+++ b/hw2_requirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\AppData\Local\Temp\Mxt221\RemoteFiles\133858_12_147\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\AppData\Local\Temp\Mxt221\RemoteFiles\133858_12_148\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B492A32-7E31-4E14-A6B7-7D6D36E294E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728EDE0A-7508-4F53-A637-A4AE259EEB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Extra note to TA</t>
   </si>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>at least strong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 requests max, LRU, clean on accessed again or maximum size reached (pushed out)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -487,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -573,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
